--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_44.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_44.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1612"/>
+  <dimension ref="A1:N1613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.666562795639038</v>
+        <v>0.001370906829833984</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05691814422607422</v>
+        <v>0.0009088516235351562</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08382081985473633</v>
+        <v>0.09479808807373047</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (3, 3), (5, 5), (6, 4), (5, 1), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (2, 2), (2, 0), (2, 6), (0, 4), (1, 4), (4, 5), (2, 5), (3, 4), (4, 6), (5, 4), (0, 6), (6, 6), (3, 2), (5, 3), (6, 5), (4, 3), (6, 2), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [3, 3], [5, 5], [6, 4], [5, 1], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [2, 2], [2, 0], [2, 6], [0, 4], [1, 4], [4, 5], [2, 5], [3, 4], [4, 6], [5, 4], [0, 6], [6, 6], [3, 2], [5, 3], [6, 5], [4, 3], [6, 2], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (3, 3), (4, 4), (6, 4), (5, 1), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (1, 4), (0, 5), (0, 4), (2, 3), (2, 5), (0, 0), (2, 6), (4, 5), (3, 4), (4, 3), (4, 6), (5, 3), (5, 4), (6, 5), (0, 6), (6, 6), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [3, 3], [4, 4], [6, 4], [5, 1], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [1, 4], [0, 5], [0, 4], [2, 3], [2, 5], [0, 0], [2, 6], [4, 5], [3, 4], [4, 3], [4, 6], [5, 3], [5, 4], [6, 5], [0, 6], [6, 6], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (3, 3), (4, 4), (6, 4), (5, 1), (5, 6), (3, 5), (2, 3), (2, 2), (2, 0), (3, 4), (2, 1), (3, 1), (3, 2), (4, 5), (3, 0), (4, 6), (4, 3), (5, 4), (5, 3), (6, 6), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [3, 3], [4, 4], [6, 4], [5, 1], [5, 6], [3, 5], [2, 3], [2, 2], [2, 0], [3, 4], [2, 1], [3, 1], [3, 2], [4, 5], [3, 0], [4, 6], [4, 3], [5, 4], [5, 3], [6, 6], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (3, 0), (6, 4), (1, 5), (3, 6), (5, 1), (0, 5), (1, 4), (2, 0), (3, 1), (0, 3), (2, 5), (0, 4), (5, 0), (5, 3), (1, 6), (6, 0), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [3, 0], [6, 4], [1, 5], [3, 6], [5, 1], [0, 5], [1, 4], [2, 0], [3, 1], [0, 3], [2, 5], [0, 4], [5, 0], [5, 3], [1, 6], [6, 0], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (3, 0), (6, 4), (0, 6), (1, 6), (5, 1), (3, 2), (3, 3), (3, 1), (4, 3), (5, 3), (5, 4), (6, 2), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [3, 0], [6, 4], [0, 6], [1, 6], [5, 1], [3, 2], [3, 3], [3, 1], [4, 3], [5, 3], [5, 4], [6, 2], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (3, 0), (4, 2), (3, 1), (3, 3), (0, 6), (1, 6), (5, 1), (3, 2), (4, 3), (5, 0), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [3, 0], [4, 2], [3, 1], [3, 3], [0, 6], [1, 6], [5, 1], [3, 2], [4, 3], [5, 0], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (3, 0), (3, 1), (3, 2), (3, 3), (0, 6), (1, 6), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [3, 0], [3, 1], [3, 2], [3, 3], [0, 6], [1, 6], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 1), (5, 0), (5, 1), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 0], [4, 1], [3, 1], [5, 0], [5, 1], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>[(0, 6), (5, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[0, 6], [5, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (5, 1), (3, 3)]</t>
+          <t>[[4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [5, 1], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -9571,7 +9571,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 0), (4, 0), (3, 1), (5, 1), (3, 3)]</t>
+          <t>[[4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 0], [4, 0], [3, 1], [5, 1], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -10745,7 +10745,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>[(4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 1), (0, 6), (3, 2), (5, 0), (3, 0), (4, 0), (3, 3), (5, 1), (4, 1)]</t>
+          <t>[[4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 1], [0, 6], [3, 2], [5, 0], [3, 0], [4, 0], [3, 3], [5, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -11786,7 +11786,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>[(6, 4), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (5, 3), (3, 3), (6, 2), (4, 3), (3, 1), (0, 6), (3, 2), (5, 0), (3, 0), (4, 0), (4, 2), (5, 1), (4, 1)]</t>
+          <t>[[6, 4], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [5, 3], [3, 3], [6, 2], [4, 3], [3, 1], [0, 6], [3, 2], [5, 0], [3, 0], [4, 0], [4, 2], [5, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>[(5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (0, 6), (3, 3), (6, 2), (3, 2), (3, 1), (1, 6), (3, 0), (5, 0), (4, 0), (4, 1), (4, 2), (5, 1), (5, 2)]</t>
+          <t>[[5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [0, 6], [3, 3], [6, 2], [3, 2], [3, 1], [1, 6], [3, 0], [5, 0], [4, 0], [4, 1], [4, 2], [5, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13596,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>[(3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (1, 6), (4, 3), (4, 6), (5, 3), (5, 4), (3, 2), (6, 5), (6, 6), (0, 6), (3, 3), (6, 2), (3, 0), (3, 1), (5, 6), (4, 0), (5, 0), (4, 1), (4, 2), (4, 4), (5, 1), (5, 2)]</t>
+          <t>[[3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [1, 6], [4, 3], [4, 6], [5, 3], [5, 4], [3, 2], [6, 5], [6, 6], [0, 6], [3, 3], [6, 2], [3, 0], [3, 1], [5, 6], [4, 0], [5, 0], [4, 1], [4, 2], [4, 4], [5, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -14412,7 +14412,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>[(0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 2), (3, 0), (3, 1), (3, 3), (2, 5), (3, 6), (3, 5), (5, 4), (3, 4), (6, 5), (6, 6), (4, 6), (4, 2), (6, 2), (4, 0), (4, 1), (5, 6), (5, 0), (5, 1), (4, 3), (4, 4), (4, 5), (5, 2), (5, 3)]</t>
+          <t>[[0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 2], [3, 0], [3, 1], [3, 3], [2, 5], [3, 6], [3, 5], [5, 4], [3, 4], [6, 5], [6, 6], [4, 6], [4, 2], [6, 2], [4, 0], [4, 1], [5, 6], [5, 0], [5, 1], [4, 3], [4, 4], [4, 5], [5, 2], [5, 3]]</t>
         </is>
       </c>
     </row>
@@ -15197,7 +15197,7 @@
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>[(2, 5), (1, 5), (0, 4), (0, 3), (1, 2), (1, 1), (0, 0), (1, 0), (0, 1), (0, 2), (1, 3), (1, 4), (0, 5), (2, 4), (1, 6), (2, 3), (3, 1), (2, 0), (3, 5), (3, 6), (3, 3), (4, 0), (4, 1), (3, 4), (4, 5), (4, 6), (3, 0), (3, 2), (2, 1), (2, 6), (2, 2), (0, 6), (4, 2), (6, 2), (5, 0), (4, 3), (5, 6), (5, 1), (5, 2), (4, 4), (5, 3), (5, 4), (6, 1), (5, 5)]</t>
+          <t>[[2, 5], [1, 5], [0, 4], [0, 3], [1, 2], [1, 1], [0, 0], [1, 0], [0, 1], [0, 2], [1, 3], [1, 4], [0, 5], [2, 4], [1, 6], [2, 3], [3, 1], [2, 0], [3, 5], [3, 6], [3, 3], [4, 0], [4, 1], [3, 4], [4, 5], [4, 6], [3, 0], [3, 2], [2, 1], [2, 6], [2, 2], [0, 6], [4, 2], [6, 2], [5, 0], [4, 3], [5, 6], [5, 1], [5, 2], [4, 4], [5, 3], [5, 4], [6, 1], [5, 5]]</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (0, 6), (0, 4), (2, 5), (1, 6), (3, 2), (3, 1), (4, 0), (3, 5), (3, 6), (3, 3), (4, 1), (4, 2), (3, 4), (4, 5), (4, 6), (5, 0), (4, 3), (5, 1), (2, 6), (4, 4), (0, 5), (1, 5), (1, 4), (0, 0), (3, 0), (2, 4), (5, 2), (5, 3), (5, 4), (5, 5), (5, 6), (6, 1), (6, 4)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [0, 6], [0, 4], [2, 5], [1, 6], [3, 2], [3, 1], [4, 0], [3, 5], [3, 6], [3, 3], [4, 1], [4, 2], [3, 4], [4, 5], [4, 6], [5, 0], [4, 3], [5, 1], [2, 6], [4, 4], [0, 5], [1, 5], [1, 4], [0, 0], [3, 0], [2, 4], [5, 2], [5, 3], [5, 4], [5, 5], [5, 6], [6, 1], [6, 4]]</t>
         </is>
       </c>
     </row>
@@ -16545,7 +16545,7 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 4), (0, 5), (3, 0), (3, 1), (2, 3), (1, 6), (2, 4), (2, 5), (2, 6), (3, 2), (3, 3), (4, 0), (3, 5), (3, 6), (3, 4), (4, 1), (4, 2), (4, 3), (4, 5), (4, 6), (5, 0), (4, 4), (5, 1), (5, 5), (5, 3), (5, 4), (5, 6), (5, 2), (6, 0), (6, 1), (0, 6), (1, 5), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 4], [0, 5], [3, 0], [3, 1], [2, 3], [1, 6], [2, 4], [2, 5], [2, 6], [3, 2], [3, 3], [4, 0], [3, 5], [3, 6], [3, 4], [4, 1], [4, 2], [4, 3], [4, 5], [4, 6], [5, 0], [4, 4], [5, 1], [5, 5], [5, 3], [5, 4], [5, 6], [5, 2], [6, 0], [6, 1], [0, 6], [1, 5], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -16844,110 +16844,120 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1608" t="n">
-        <v>261</v>
+        <v>0.9834430042331664</v>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1609" t="n">
-        <v>1318</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1610" t="n">
-        <v>19</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1611" t="n">
-        <v>8.061501026153564</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1612" t="n">
+        <v>0.3875069618225098</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1612" t="inlineStr">
+      <c r="B1613" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1612" t="inlineStr">
+      <c r="C1613" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1612" t="inlineStr">
+      <c r="D1613" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1612" t="inlineStr">
+      <c r="E1613" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1612" t="inlineStr">
+      <c r="F1613" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1612" t="inlineStr">
+      <c r="G1613" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1612" t="inlineStr">
+      <c r="H1613" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1612" t="inlineStr">
+      <c r="I1613" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1612" t="inlineStr">
+      <c r="J1613" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1612" t="inlineStr">
+      <c r="K1613" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1612" t="inlineStr">
+      <c r="L1613" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1612" t="inlineStr">
+      <c r="M1613" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1612" t="inlineStr">
+      <c r="N1613" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
